--- a/biology/Médecine/Johann_Friedrich_Ahlfeld_(médecin)/Johann_Friedrich_Ahlfeld_(médecin).xlsx
+++ b/biology/Médecine/Johann_Friedrich_Ahlfeld_(médecin)/Johann_Friedrich_Ahlfeld_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johann_Friedrich_Ahlfeld_(m%C3%A9decin)</t>
+          <t>Johann_Friedrich_Ahlfeld_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Friedrich Ahlfeld est, né le 16 octobre 1843 à Alsleben et mort le 25 mai 1929 à Marbourg, un gynécologue allemand connu pour l'introduction de la désinfection des mains à l'alcool dans les domaines de l'obstétrique et la chirurgie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Friedrich Ahlfeld est, né le 16 octobre 1843 à Alsleben et mort le 25 mai 1929 à Marbourg, un gynécologue allemand connu pour l'introduction de la désinfection des mains à l'alcool dans les domaines de l'obstétrique et la chirurgie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johann_Friedrich_Ahlfeld_(m%C3%A9decin)</t>
+          <t>Johann_Friedrich_Ahlfeld_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Friedrich Ahlfeld fait ses études à Greifswald et à Leipzig, où il fut l'assistant de Carl Siegmund Franz Credé (en) (1819-1892). Il poursuit ses études à Vienne et à Tübingen et obtient son doctorat en médecine le 22 février 1868. En 1876, il devient professeur d'obstétrique à Leipzig et en 1881 il accepte une invitation à Giessen comme professeur d'obstétrique et de directeur de l'institution d'enseignement pour les sages-femmes. En 1883, il est appelé à l'université de Marbourg comme professeur d'obstétrique et directeur de l'école royale des sages-femmes. En 1894, il devient conseiller médical privé.
 Il est destitué de ses fonctions officielles en 1909 et meurt à Marbourg en 1929.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johann_Friedrich_Ahlfeld_(m%C3%A9decin)</t>
+          <t>Johann_Friedrich_Ahlfeld_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Méthode Ahlfeld</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La méthode Ahlfeld consistait à se laver les mains à l'eau chaude et de se les rincer à l'alcool. Cette technique utilisée en obstétrique est obsolète[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La méthode Ahlfeld consistait à se laver les mains à l'eau chaude et de se les rincer à l'alcool. Cette technique utilisée en obstétrique est obsolète.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Johann_Friedrich_Ahlfeld_(m%C3%A9decin)</t>
+          <t>Johann_Friedrich_Ahlfeld_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Über Zerreissung der Schamfuge während der Geburt Dissertation, Leipzig, J.J. Weber, 1868.
 Abwartende Methode oder Credéscher Handgriff, Leipzig, 1888.
